--- a/ResultadoEleicoesDistritos/LISBOA_SINTRA.xlsx
+++ b/ResultadoEleicoesDistritos/LISBOA_SINTRA.xlsx
@@ -597,64 +597,64 @@
         <v>97092</v>
       </c>
       <c r="H2" t="n">
-        <v>3534</v>
+        <v>3700</v>
       </c>
       <c r="I2" t="n">
-        <v>9702</v>
+        <v>9613</v>
       </c>
       <c r="J2" t="n">
-        <v>40331</v>
+        <v>40001</v>
       </c>
       <c r="K2" t="n">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="L2" t="n">
-        <v>11038</v>
+        <v>10861</v>
       </c>
       <c r="M2" t="n">
-        <v>686</v>
+        <v>667</v>
       </c>
       <c r="N2" t="n">
-        <v>6941</v>
+        <v>7109</v>
       </c>
       <c r="O2" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="P2" t="n">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="Q2" t="n">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="R2" t="n">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="S2" t="n">
-        <v>4303</v>
+        <v>4252</v>
       </c>
       <c r="T2" t="n">
-        <v>7002</v>
+        <v>7028</v>
       </c>
       <c r="U2" t="n">
-        <v>548</v>
+        <v>525</v>
       </c>
       <c r="V2" t="n">
-        <v>61866</v>
+        <v>62089</v>
       </c>
       <c r="W2" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="X2" t="n">
-        <v>61967</v>
+        <v>62175</v>
       </c>
       <c r="Y2" t="n">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="Z2" t="n">
-        <v>933</v>
+        <v>865</v>
       </c>
       <c r="AA2" t="n">
-        <v>424</v>
+        <v>429</v>
       </c>
     </row>
   </sheetData>
